--- a/tests/Templates/tLists7_horizontal_images.xlsx
+++ b/tests/Templates/tLists7_horizontal_images.xlsx
@@ -147,13 +147,11 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -214,7 +212,6 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
